--- a/excelData/formula.xlsx
+++ b/excelData/formula.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tubiao" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,6 +126,363 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Area Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'tubiao'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'tubiao'!$A$1:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'tubiao'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'tubiao'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'tubiao'!$A$1:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'tubiao'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Test</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Area Chart</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <area3DChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'tubiao'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'tubiao'!$A$1:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'tubiao'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'tubiao'!C1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'tubiao'!$A$1:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'tubiao'!$C$2:$C$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+        <axId val="1000"/>
+      </area3DChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Test</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+      <serAx>
+        <axId val="1000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </serAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7515225" cy="8143875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -411,7 +769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -435,5 +793,192 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Batch 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Batch 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Batch 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>30</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>